--- a/Working Docs/Menu items.xlsx
+++ b/Working Docs/Menu items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="-80" windowWidth="13920" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="14760" yWindow="-75" windowWidth="13920" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,180 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
+    <t xml:space="preserve">
+Project | Task: Hyperlinks
+Project | (Task) | Location: Hyperlinks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Project, Task, Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Info
+Logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Project selected
+2) Task selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survey Forms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technicians</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breadcrumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header
+(far right)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header 
+(center)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Manager
+ (user)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List All: Active || Inactive (Complete or Dormant)
+Add: see below for Task tabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List All: Active || Inactive
+Add*: Project Info | Facility Info | Client Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List All: Active || Inactive
+Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperlinks (edit) - move between tabs
+Upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tabs | Tabs
+List Box 1 || List Box 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Projects
+Selected Project (1)
+All (Project) Locations (1)
+Task Locations (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperlinks (edit) - move between tabs
+Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperlinks (edit or copy) - move between tabs
+Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add* - In all cases, must be able to add or edit forms.  Same form, different entry point.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update
+--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperlinks (edit)
+Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperlinks to markers
+Add Location
+Move Location
+etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>Task Tabs</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -35,15 +202,17 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Task Info: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Task Name
@@ -60,15 +229,17 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Technicians:</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 
 List Box: Selected || Others.  Selected wil be a list with radio buttons for the lead technician.  Others will be all other Technicians.
@@ -77,15 +248,17 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Locations: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 List Box: Selected || Others.  Selected wil be the Locations for this Task.  Others will be all other Project Locations.
@@ -94,15 +267,17 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Resources: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Nested Tabs: Analytical Lab | Driller | etc.
@@ -112,15 +287,17 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Forms:</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 
 TBD.
@@ -130,16 +307,18 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Chain of Custody: 
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Items: TBD 
 </t>
@@ -147,15 +326,17 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Analytes: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Will be similar to Add/Upload Location.  User can type in analytes one by one or paste a list.
@@ -164,230 +345,51 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Sample Matrix: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Automatically generated from List of Locations and Analytes.  User can use checkboxes to create a custom matrix. </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Project | Task: Hyperlinks
-Project | (Task) | Location: Hyperlinks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select Project, Task, Location</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project selected</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit Info
-Logout</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) Project selected
-2) Task selected</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buttons</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu Location</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locations</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu Items</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tasks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survey Forms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Technicians</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Results</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breadcrumb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>--</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Header
-(far right)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Header 
-(center)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Manager
- (user)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>List All: Active || Inactive (Complete or Dormant)
-Add: see below for Task tabs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>List All: Active || Inactive
-Add*: Project Info | Facility Info | Client Info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>List All: Active || Inactive
-Add</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">List [Project]: Active || Inactive
-Add/Upload List </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>(user types, or copies: "Location Name, Lat, Long" - Lat/Long optional)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyperlinks (edit) - move between tabs
-Upload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tabs | Tabs
-List Box 1 || List Box 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Projects
-Selected Project (1)
-All (Project) Locations (1)
-Task Locations (2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyperlinks (edit) - move between tabs
-Add</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyperlinks (edit or copy) - move between tabs
-Add</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add* - In all cases, must be able to add or edit forms.  Same form, different entry point.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update
---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyperlinks (edit)
-Add</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyperlinks to markers
-Add Location
-Move Location
-etc.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>List [Project]: Active || Inactive
+Add/Upload List 
+(user types, or copies: "Location Name, Lat, Long" - Lat/Long optional)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -551,48 +553,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,40 +564,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,6 +646,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -965,198 +973,628 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="52.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="26">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="18"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" ht="26">
-      <c r="A3" s="20" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="E7" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="D9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" customHeight="1">
-      <c r="A4" s="20" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26">
-      <c r="A6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26">
-      <c r="A7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="26">
-      <c r="A8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="21" t="s">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="52">
-      <c r="A9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="14" thickBot="1">
-      <c r="A12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="409">
-      <c r="D15" s="30" t="s">
-        <v>0</v>
-      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A34:E78"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
